--- a/biology/Biochimie/Trilobatine/Trilobatine.xlsx
+++ b/biology/Biochimie/Trilobatine/Trilobatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La trilobatine est un O-hétéroside de dihydrochalcone naturel qui possède une saveur sucrée intense.
@@ -512,12 +524,14 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La trilobatine a été identifiée et quantifiée à hauteur de 1 % dans les feuilles d'une espèce de pommier, Malus trilobata, d’où il tire son nom[2].
-La trilobatine a été trouvée aussi dans les feuilles de plantes de la famille des Symplocaceae : de 0,6 % dans les feuilles de Symplocos lancifolia et  Symplocos spicata[3] et 1,2 % dans le Symplocos paniculata Miq. (Simplocaceae), communément appelé feuille sucré, sapphir berry, lodhra (Sanskrit), ludh (Hindi)[4].
-La trilobatine a aussi été trouvée à hauteur de 1,2 % dans les feuilles d'un chêne, le Lithocarpus litseifolius (Hance), dont les feuilles sont utilisées en Chine du sud pour faire une infusion sucrée[5].
-La trilobatine a été chimiquement synthétisée en 1942 sous le nom de p-phlorizine[6], et par hémisynthèse en 1963, à partir de la prunine, sous le nom de prunine dihydrochalcone dans le cadre de recherche pour réduire l'amertume des jus de citrus[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La trilobatine a été identifiée et quantifiée à hauteur de 1 % dans les feuilles d'une espèce de pommier, Malus trilobata, d’où il tire son nom.
+La trilobatine a été trouvée aussi dans les feuilles de plantes de la famille des Symplocaceae : de 0,6 % dans les feuilles de Symplocos lancifolia et  Symplocos spicata et 1,2 % dans le Symplocos paniculata Miq. (Simplocaceae), communément appelé feuille sucré, sapphir berry, lodhra (Sanskrit), ludh (Hindi).
+La trilobatine a aussi été trouvée à hauteur de 1,2 % dans les feuilles d'un chêne, le Lithocarpus litseifolius (Hance), dont les feuilles sont utilisées en Chine du sud pour faire une infusion sucrée.
+La trilobatine a été chimiquement synthétisée en 1942 sous le nom de p-phlorizine, et par hémisynthèse en 1963, à partir de la prunine, sous le nom de prunine dihydrochalcone dans le cadre de recherche pour réduire l'amertume des jus de citrus.
 </t>
         </is>
       </c>
@@ -546,16 +560,18 @@
           <t>Propriétés et utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La trilobatine possède une saveur sucrée intense supérieure au sucre de table, 100 ppm et 200 ppm de trilobatine est aussi sucré qu'une solution de sucre à 0,5 % et 1 % respectivement[6].
-Ce composé a été breveté en 1963 comme édulcorant intense, avec un pouvoir sucrant de 60 % inférieur (en concentration molaire) à celui de la saccharine et celui de la naringine dihydrochalcone[7]. Il est maintenant plutôt utilisé comme exhausteur de goût sucré ou composé anti-amertume[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La trilobatine possède une saveur sucrée intense supérieure au sucre de table, 100 ppm et 200 ppm de trilobatine est aussi sucré qu'une solution de sucre à 0,5 % et 1 % respectivement.
+Ce composé a été breveté en 1963 comme édulcorant intense, avec un pouvoir sucrant de 60 % inférieur (en concentration molaire) à celui de la saccharine et celui de la naringine dihydrochalcone. Il est maintenant plutôt utilisé comme exhausteur de goût sucré ou composé anti-amertume.
 L'Union Européenne a reconnu en 2010, dans son utilisation en tant qu'arôme aux niveaux recommandés et dans les catégories alimentaires autorisées, que la consommation de trilobatine est sans danger pour la santé.
-La quantité maximum autorisée dans le produit final par catégorie alimentaire est la suivante[2] :
+La quantité maximum autorisée dans le produit final par catégorie alimentaire est la suivante :
 Produits laitiers : 750 ppm ;
 Céréales et dérivées : 100 ppm ;
 Boissons non-alcoolisées : 100 ppm.
-La trilobatine a obtenu le statut Fema GRAS, sous le numéro 4674 dans la liste publiée dans l'édition 25 et peut donc être utilisée dans les aliments en tant qu'arôme[8].
+La trilobatine a obtenu le statut Fema GRAS, sous le numéro 4674 dans la liste publiée dans l'édition 25 et peut donc être utilisée dans les aliments en tant qu'arôme.
 </t>
         </is>
       </c>
@@ -584,9 +600,11 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ingestion de trilobatine conduit à la formation de métabolites normalement présents, et dans des proportions similaires, dans le corps humain et animal, produit après la consommation de nourriture[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ingestion de trilobatine conduit à la formation de métabolites normalement présents, et dans des proportions similaires, dans le corps humain et animal, produit après la consommation de nourriture.
 </t>
         </is>
       </c>
